--- a/Throughoutput/Throughput.xlsx
+++ b/Throughoutput/Throughput.xlsx
@@ -65,54 +65,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>18.965997320655188</v>
+        <v>27.902578288665545</v>
       </c>
       <c r="B1" s="0">
-        <v>58.024145371520945</v>
+        <v>55.380739840990238</v>
       </c>
       <c r="C1" s="0">
-        <v>71.239752130400632</v>
+        <v>89.794784480527568</v>
       </c>
       <c r="D1" s="0">
-        <v>109.26479724148716</v>
+        <v>113.53794014153765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>39.635693811948983</v>
+        <v>13.651547874651698</v>
       </c>
       <c r="B2" s="0">
-        <v>49.53514364240381</v>
+        <v>41.293057514100205</v>
       </c>
       <c r="C2" s="0">
-        <v>68.895153004031002</v>
+        <v>53.88169373899715</v>
       </c>
       <c r="D2" s="0">
-        <v>85.576824364527567</v>
+        <v>80.477877878533548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>8.0665191375765115</v>
+        <v>12.232185717969626</v>
       </c>
       <c r="B3" s="0">
-        <v>18.464555283720816</v>
+        <v>21.933771507845403</v>
       </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
+      <c r="C3" s="0">
+        <v>32.541674156121267</v>
+      </c>
+      <c r="D3" s="0">
+        <v>47.050443828098665</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>43.752449804719866</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>51.724192421180462</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>82.87245454821857</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>128.39524169680178</v>
       </c>
     </row>
   </sheetData>

--- a/Throughoutput/Throughput.xlsx
+++ b/Throughoutput/Throughput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simulation\Throughoutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A227D9-CC58-4DE8-BC9D-697476DD807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C34AEC-C1E7-4D00-97C8-F963A1994A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -382,58 +382,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>80.119646321660795</v>
+        <v>30.119646321660799</v>
       </c>
       <c r="B1">
-        <v>158.496178140707</v>
+        <v>69.496178140707002</v>
       </c>
       <c r="C1">
-        <v>207.49929951924</v>
+        <v>93.499299519239997</v>
       </c>
       <c r="D1">
-        <v>242.819216450997</v>
+        <v>101.819216450997</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>70.808865934496694</v>
+        <v>25.808865934496701</v>
       </c>
       <c r="B2">
-        <v>134.732111522808</v>
+        <v>57.732111522807998</v>
       </c>
       <c r="C2">
-        <v>182.633835713259</v>
+        <v>82.633835713259003</v>
       </c>
       <c r="D2">
-        <v>219.19828603531101</v>
+        <v>92.198286035311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>74.377228766841299</v>
+        <v>27.377228766841299</v>
       </c>
       <c r="B3">
-        <v>137.741128890786</v>
+        <v>59.741128890786001</v>
       </c>
       <c r="C3">
-        <v>175.360170913632</v>
+        <v>81.360170913632004</v>
       </c>
       <c r="D3">
-        <v>214.45822551028201</v>
+        <v>91.458225510282006</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>72.716631139150905</v>
+        <v>26.716631139150898</v>
       </c>
       <c r="B4">
-        <v>132.756901237753</v>
+        <v>56.756901237752999</v>
       </c>
       <c r="C4">
-        <v>185.22896818092099</v>
+        <v>80.228968180921001</v>
       </c>
       <c r="D4">
-        <v>220.424768857857</v>
+        <v>90.424768857857003</v>
       </c>
     </row>
   </sheetData>

--- a/Throughoutput/Throughput.xlsx
+++ b/Throughoutput/Throughput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\simulation\Throughoutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C34AEC-C1E7-4D00-97C8-F963A1994A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30F1FDE-46F7-46D7-B0DE-52347DB5D90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -382,58 +382,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>30.119646321660799</v>
+        <v>60.119646321660802</v>
       </c>
       <c r="B1">
-        <v>69.496178140707002</v>
+        <v>140.496178140707</v>
       </c>
       <c r="C1">
-        <v>93.499299519239997</v>
+        <v>187.49929951924</v>
       </c>
       <c r="D1">
-        <v>101.819216450997</v>
+        <v>210.819216450997</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>25.808865934496701</v>
+        <v>50.808865934496701</v>
       </c>
       <c r="B2">
-        <v>57.732111522807998</v>
+        <v>114.732111522808</v>
       </c>
       <c r="C2">
-        <v>82.633835713259003</v>
+        <v>162.633835713259</v>
       </c>
       <c r="D2">
-        <v>92.198286035311</v>
+        <v>184.19828603531101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>27.377228766841299</v>
+        <v>54.377228766841299</v>
       </c>
       <c r="B3">
-        <v>59.741128890786001</v>
+        <v>120.741128890786</v>
       </c>
       <c r="C3">
-        <v>81.360170913632004</v>
+        <v>160.360170913632</v>
       </c>
       <c r="D3">
-        <v>91.458225510282006</v>
+        <v>182.45822551028201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>26.716631139150898</v>
+        <v>52.716631139150898</v>
       </c>
       <c r="B4">
-        <v>56.756901237752999</v>
+        <v>117.756901237753</v>
       </c>
       <c r="C4">
-        <v>80.228968180921001</v>
+        <v>164.22896818092099</v>
       </c>
       <c r="D4">
-        <v>90.424768857857003</v>
+        <v>180.424768857857</v>
       </c>
     </row>
   </sheetData>
